--- a/SuRGE_Sharepoint/data/CIN/CH4_077_Cottonwood/dataSheets/surgeData077.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_077_Cottonwood/dataSheets/surgeData077.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_077_Cottonwood/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_077_Cottonwood/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="645" documentId="8_{1DDFDD34-519A-42E7-BF22-31661CFC9240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FF2E70C-3011-4B57-A2A0-8C9B40C85EF0}"/>
+  <xr:revisionPtr revIDLastSave="646" documentId="8_{1DDFDD34-519A-42E7-BF22-31661CFC9240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B01C5549-EC43-4A35-912A-3DE85C9FAD11}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1356,6 +1356,7 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1377,7 +1378,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1437,9 +1437,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1477,7 +1477,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1583,7 +1583,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1725,7 +1725,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1735,174 +1735,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM22" sqref="BM22"/>
+      <selection pane="topRight" activeCell="BT4" sqref="BT4:BV4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.54296875" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" customWidth="1"/>
     <col min="29" max="30" width="6" customWidth="1"/>
-    <col min="31" max="31" width="8.90625" customWidth="1"/>
-    <col min="32" max="32" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.88671875" customWidth="1"/>
+    <col min="32" max="32" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="18" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.1796875" customWidth="1"/>
-    <col min="47" max="47" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.21875" customWidth="1"/>
+    <col min="47" max="47" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="6" customWidth="1"/>
-    <col min="49" max="49" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.54296875" customWidth="1"/>
-    <col min="51" max="51" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.5546875" customWidth="1"/>
+    <col min="51" max="51" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="10" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="14" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="21.54296875" customWidth="1"/>
+    <col min="63" max="63" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="68" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="32" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="34" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="34"/>
-      <c r="BM1" s="34"/>
-      <c r="BN1" s="34"/>
-      <c r="BO1" s="34"/>
-      <c r="BP1" s="34"/>
-      <c r="BQ1" s="34"/>
-      <c r="BR1" s="34"/>
-      <c r="BS1" s="34"/>
-      <c r="BT1" s="35" t="s">
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
+      <c r="BQ1" s="35"/>
+      <c r="BR1" s="35"/>
+      <c r="BS1" s="35"/>
+      <c r="BT1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="BU1" s="35"/>
-      <c r="BV1" s="35"/>
-      <c r="BW1" s="30" t="s">
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="BX1" s="30"/>
-      <c r="BY1" s="30"/>
-      <c r="BZ1" s="30"/>
-    </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="BX1" s="31"/>
+      <c r="BY1" s="31"/>
+      <c r="BZ1" s="31"/>
+    </row>
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
@@ -2138,7 +2135,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>173</v>
       </c>
@@ -2255,15 +2252,6 @@
       <c r="BR3" t="s">
         <v>191</v>
       </c>
-      <c r="BT3" t="s">
-        <v>221</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>222</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>223</v>
-      </c>
       <c r="BW3">
         <v>2.0590999999999999</v>
       </c>
@@ -2277,7 +2265,7 @@
         <v>0.82767361111111104</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>173</v>
       </c>
@@ -2379,8 +2367,17 @@
       <c r="BE4">
         <v>3.32</v>
       </c>
-    </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="BT4" t="s">
+        <v>221</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>222</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>173</v>
       </c>
@@ -2483,7 +2480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>173</v>
       </c>
@@ -2583,7 +2580,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>173</v>
       </c>
@@ -2686,7 +2683,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>173</v>
       </c>
@@ -2792,7 +2789,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>173</v>
       </c>
@@ -2907,7 +2904,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>173</v>
       </c>
@@ -3016,7 +3013,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>173</v>
       </c>
@@ -3137,7 +3134,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>173</v>
       </c>
@@ -3237,7 +3234,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>173</v>
       </c>
@@ -3343,7 +3340,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>173</v>
       </c>
@@ -3462,7 +3459,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>173</v>
       </c>
@@ -3569,7 +3566,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>173</v>
       </c>
@@ -3673,7 +3670,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>173</v>
       </c>
@@ -3811,19 +3808,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229CFC7D-096F-4A49-B44F-3C66E059D51A}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7265625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="26"/>
+    <col min="1" max="1" width="17.77734375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.77734375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.21875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -3834,7 +3831,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3845,7 +3842,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3856,7 +3853,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -3867,7 +3864,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3878,7 +3875,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3889,7 +3886,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3900,7 +3897,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3911,7 +3908,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3922,7 +3919,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3933,7 +3930,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3944,18 +3941,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3966,7 +3963,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3975,7 +3972,7 @@
       </c>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3986,7 +3983,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3995,7 +3992,7 @@
       </c>
       <c r="C16"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -4006,7 +4003,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -4015,7 +4012,7 @@
       </c>
       <c r="C18"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -4026,7 +4023,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -4035,7 +4032,7 @@
       </c>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -4046,7 +4043,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -4057,7 +4054,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -4068,7 +4065,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -4079,7 +4076,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -4090,7 +4087,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -4101,7 +4098,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -4110,7 +4107,7 @@
       </c>
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -4121,7 +4118,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -4132,7 +4129,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -4143,7 +4140,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -4154,7 +4151,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -4165,7 +4162,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -4176,7 +4173,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -4187,7 +4184,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>192</v>
       </c>
@@ -4198,7 +4195,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4209,7 +4206,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4218,7 +4215,7 @@
       </c>
       <c r="C37"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4227,7 +4224,7 @@
       </c>
       <c r="C38"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4236,7 +4233,7 @@
       </c>
       <c r="C39"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4245,7 +4242,7 @@
       </c>
       <c r="C40"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4254,7 +4251,7 @@
       </c>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -4263,7 +4260,7 @@
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -4272,7 +4269,7 @@
       </c>
       <c r="C43"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -4281,7 +4278,7 @@
       </c>
       <c r="C44"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -4290,7 +4287,7 @@
       </c>
       <c r="C45"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -4299,7 +4296,7 @@
       </c>
       <c r="C46"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -4308,7 +4305,7 @@
       </c>
       <c r="C47"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -4317,7 +4314,7 @@
       </c>
       <c r="C48"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>235</v>
       </c>
@@ -4326,7 +4323,7 @@
       </c>
       <c r="C49"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -4335,7 +4332,7 @@
       </c>
       <c r="C50"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -4346,7 +4343,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -4357,7 +4354,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -4368,7 +4365,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -4379,7 +4376,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -4390,7 +4387,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -4401,7 +4398,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>193</v>
       </c>
@@ -4412,7 +4409,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -4423,7 +4420,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -4432,7 +4429,7 @@
       </c>
       <c r="C59"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -4441,7 +4438,7 @@
       </c>
       <c r="C60"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -4450,7 +4447,7 @@
       </c>
       <c r="C61"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -4459,7 +4456,7 @@
       </c>
       <c r="C62"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -4468,7 +4465,7 @@
       </c>
       <c r="C63"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>237</v>
       </c>
@@ -4477,7 +4474,7 @@
       </c>
       <c r="C64"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -4486,7 +4483,7 @@
       </c>
       <c r="C65"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -4495,7 +4492,7 @@
       </c>
       <c r="C66"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -4504,7 +4501,7 @@
       </c>
       <c r="C67"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -4513,7 +4510,7 @@
       </c>
       <c r="C68"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -4522,7 +4519,7 @@
       </c>
       <c r="C69"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -4531,7 +4528,7 @@
       </c>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>239</v>
       </c>
@@ -4540,7 +4537,7 @@
       </c>
       <c r="C71"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -4549,7 +4546,7 @@
       </c>
       <c r="C72"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -4560,7 +4557,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -4571,7 +4568,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -4582,7 +4579,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -4593,7 +4590,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -4604,7 +4601,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -4615,7 +4612,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -4639,33 +4636,33 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="24"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="24"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4699,7 +4696,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>173</v>
       </c>
@@ -4728,7 +4725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>173</v>
       </c>
@@ -4757,7 +4754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>173</v>
       </c>
@@ -4786,7 +4783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>173</v>
       </c>
@@ -4815,7 +4812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>173</v>
       </c>
@@ -4844,7 +4841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>173</v>
       </c>
@@ -4891,14 +4888,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -4909,7 +4906,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4920,7 +4917,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4931,7 +4928,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>154</v>
       </c>
@@ -4942,7 +4939,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>155</v>
       </c>
@@ -4953,7 +4950,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>156</v>
       </c>
@@ -4964,7 +4961,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>157</v>
       </c>
@@ -4972,7 +4969,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>158</v>
       </c>
@@ -4983,7 +4980,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>159</v>
       </c>
@@ -4994,7 +4991,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>160</v>
       </c>
@@ -5005,7 +5002,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>161</v>
       </c>
@@ -5022,20 +5019,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
@@ -5075,6 +5058,20 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5543,9 +5540,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5559,19 +5562,32 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873C783D-F0D6-4DD5-9388-27069DE14AB9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873C783D-F0D6-4DD5-9388-27069DE14AB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>